--- a/FYP_API문서.xlsx
+++ b/FYP_API문서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19300" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="1280" windowWidth="33600" windowHeight="19300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -27,11 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
-  <si>
-    <t>[user]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
   <si>
     <t>회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,10 +54,6 @@
   </si>
   <si>
     <t>회원정보 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/auth/user/modify</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -169,10 +161,6 @@
   </si>
   <si>
     <t>DELETE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PUT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -312,6 +300,26 @@
   </si>
   <si>
     <t>/api/music/{musicId}/edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[member]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 유저 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/auth/user/{userId}/edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/mypage/members/{userId}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -644,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:H30"/>
+  <dimension ref="B3:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -660,86 +668,86 @@
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="162" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="72" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -753,7 +761,7 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -762,47 +770,53 @@
     </row>
     <row r="11" spans="2:8" ht="396" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -810,162 +824,164 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="2:6" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="2:6" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="21" spans="2:6" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
@@ -990,6 +1006,13 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FYP_API문서.xlsx
+++ b/FYP_API문서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1280" windowWidth="33600" windowHeight="19300" tabRatio="500"/>
+    <workbookView xWindow="3740" yWindow="8960" windowWidth="33600" windowHeight="19300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
   <si>
     <t>회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -320,6 +320,20 @@
   </si>
   <si>
     <t>/api/mypage/members/{userId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    {
+        "id": 2,
+        "userId": "cos2",
+        "userPw": "1234",
+        "userName": "cos",
+        "userEmail": "cos@gmail.com",
+        "userAge": "25",
+        "userHeight": "160",
+        "userWeight": "46",
+        "createDate": "2022-05-12T20:41:55.793879"
+    }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -654,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -802,7 +816,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" ht="198" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>59</v>
       </c>
@@ -813,7 +827,9 @@
         <v>30</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="F13" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>

--- a/FYP_API문서.xlsx
+++ b/FYP_API문서.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hwikyung/Desktop/study/face-your-pace-backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F35DCD78-0132-D24F-934F-0889C4AB8123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3740" yWindow="8960" windowWidth="33600" windowHeight="19300" tabRatio="500"/>
+    <workbookView xWindow="280" yWindow="3160" windowWidth="18740" windowHeight="17820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="시트1" sheetId="1" r:id="rId1"/>
+    <sheet name="프론트-백" sheetId="1" r:id="rId1"/>
+    <sheet name="기능-백" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="88">
   <si>
     <t>회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,10 +84,6 @@
   </si>
   <si>
     <t>[music]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이리스트 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -176,13 +174,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-   name : playlist1
-   createdate : 2022-04-08
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">nMusic은 플레이리스트의 음악 개수를 의미함
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,10 +181,6 @@
   <si>
     <t>playlist_id는 각 플레이리스트를 고유하게
 식별하는 값이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>음악 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -206,15 +193,6 @@
   <si>
     <t xml:space="preserve">   성공 : true
    실패 : false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-   playlist_id: 1212
-   id:1234,
-   musicName: 'blueming',
-   createDate: 2022-04-30
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -323,25 +301,159 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    {
-        "id": 2,
-        "userId": "cos2",
-        "userPw": "1234",
-        "userName": "cos",
-        "userEmail": "cos@gmail.com",
-        "userAge": "25",
-        "userHeight": "160",
-        "userWeight": "46",
-        "createDate": "2022-05-12T20:41:55.793879"
-    }</t>
+    <t>기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(백으로부터) 받아야 할 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(백에)보낼 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함수명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음원 처리 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bpm 추천 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case1 - 키,나이,보폭,페이스 추천받을 때 - 키,나이,운동강도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bpm 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노래파일, 저장파일, 시작시간, 끝나는시간, 타겟 bpm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다운로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wav 파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recommend_bpm.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>download_wav.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    playListId: 17,
+    musicId: 6
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    musicStart: 00:30,
+    musicEnd: 01:30,
+    musicRepeat: 3
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이리스트 추가(음악 없이)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+   name : playlist1,
+   userId: cos1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이리스트에 음악 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음악 추가(음악다운, 홈에서 url입력)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/playList/music/add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    music_url: https://soundcloud.com/ferret-lie/only-your-stars-trickstar-ver,
+    userId: cos1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음악 리스트(해당유저)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/music/lsit/{userId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[플레이리스트]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이리스트(특정유저의) 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/mypage/playlist/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+    {
+        "member": {
+            "id": 4,
+            "userId": "cos4",
+            "userPw": "1234",
+            "userName": "cos",
+            "userEmail": "cos@gmail.com",
+            "userAge": "25",
+            "userHeight": "160",
+            "userWeight": "46",
+            "stride": "10",
+            "target_pace": "130",
+            "workout_level": "중강",
+            "createDate": "2022-05-20T16:19:50.88056"
+        },
+        "name": "myplay1",
+        "playListDate": "2022-05-31T16:38:15.415394"
+    }
+]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -378,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -386,9 +498,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="기본" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -665,35 +781,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:H31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.7109375" customWidth="1"/>
+    <col min="5" max="5" width="40.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="55.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8">
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="162" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="171">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -701,16 +817,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="72" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="76">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -718,16 +834,16 @@
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -735,25 +851,25 @@
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8">
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8">
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
@@ -761,19 +877,19 @@
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8">
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
@@ -782,63 +898,61 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="2:8" ht="396" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" ht="409.6">
       <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="2:8" ht="198" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8">
       <c r="B13" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="2:8">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8">
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
@@ -847,7 +961,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8">
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
@@ -855,179 +969,335 @@
         <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>13</v>
-      </c>
+    <row r="18" spans="2:6">
+      <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="2:6" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6">
       <c r="B19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="2:6" ht="97.5" customHeight="1">
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="97.5" customHeight="1">
       <c r="B21" s="1" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="2:6" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="97.5" customHeight="1">
       <c r="B22" s="1" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" ht="97.5" customHeight="1">
       <c r="B23" s="1" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="2:6">
       <c r="B24" s="1" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="2:6" ht="97" customHeight="1">
+      <c r="B25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="24" customHeight="1">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="2:6" ht="25" customHeight="1">
+      <c r="B27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="2:6" ht="409.6">
+      <c r="B28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="2:6" ht="25" customHeight="1">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="2:6" ht="23" customHeight="1">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="38">
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="38">
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/FYP_API문서.xlsx
+++ b/FYP_API문서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hwikyung/Desktop/study/face-your-pace-backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F35DCD78-0132-D24F-934F-0889C4AB8123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E427F4F-76DC-E74C-BDE4-76FB506ECAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="3160" windowWidth="18740" windowHeight="17820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="500" windowWidth="30120" windowHeight="19460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="프론트-백" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="95">
   <si>
     <t>회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -446,6 +446,65 @@
         "playListDate": "2022-05-31T16:38:15.415394"
     }
 ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/music/lsit/{userId}/{name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음악리스트(해당유저, 해당 플레이리스트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s3 url 음악title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/music/s3/{musicId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+    {
+        "id": 60,
+        "userId": "cos1",
+        "musicName": null,
+        "musicStart": null,
+        "musicEnd": null,
+        "musicRepeat": null,
+        "musicImg_url": "http://hwi/abc.png",
+        "music_url": "https://soundcloud.com/ferret-lie/only-your-stars-trickstar-ver2",
+        "length": "03:48",
+        "title": "title",
+        "target_bpm": null,
+        "s3Title": "hello",
+        "createDate": null
+    }
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+    {
+        "id": 59,
+        "userId": "cos1",
+        "musicName": null,
+        "musicStart": null,
+        "musicEnd": null,
+        "musicRepeat": null,
+        "musicImg_url": "http://hwi/abc.png",
+        "music_url": "https://soundcloud.com/ferret-lie/only-your-stars-trickstar-ver2",
+        "length": "03:48",
+        "title": "title",
+        "target_bpm": null,
+        "s3Title": null,
+        "createDate": null
+    },]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> home.wav 또는 home.mp3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -517,6 +576,98 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>596900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>3593349</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1F562D0-2C1E-880D-0F04-0B4AFC4B83D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11772900" y="16294100"/>
+          <a:ext cx="7772400" cy="2996449"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>50801</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>306022</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>3898900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71390803-6474-6D7E-22D9-6650A3CB3CED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect b="22452"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11709399" y="20091401"/>
+          <a:ext cx="6198823" cy="3848099"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -782,15 +933,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:H39"/>
+  <dimension ref="B3:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="55.5703125" customWidth="1"/>
@@ -1046,7 +1197,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:6" ht="97.5" customHeight="1">
+    <row r="23" spans="2:6" ht="342">
       <c r="B23" s="1" t="s">
         <v>82</v>
       </c>
@@ -1056,157 +1207,173 @@
       <c r="D23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" ht="323">
       <c r="B24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="2:6" ht="97" customHeight="1">
-      <c r="B25" s="1" t="s">
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="2:6" ht="97" customHeight="1">
+      <c r="B26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="24" customHeight="1">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="2:6" ht="25" customHeight="1">
+    <row r="27" spans="2:6" ht="97" customHeight="1">
       <c r="B27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="24" customHeight="1">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="2:6" ht="25" customHeight="1">
+      <c r="B29" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="2:6" ht="409.6">
-      <c r="B28" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="2:6" ht="25" customHeight="1">
-      <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="2:6" ht="23" customHeight="1">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="2"/>
+    <row r="30" spans="2:6" ht="409.6">
+      <c r="B30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+    <row r="31" spans="2:6" ht="25" customHeight="1">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="2:6" ht="23" customHeight="1">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
@@ -1224,9 +1391,24 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
